--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\botzonetap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9287C72-B0DC-4110-BFAB-7E2CA17A46C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -493,8 +499,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,18 +563,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -612,7 +630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,9 +662,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,6 +714,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -853,14 +907,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="J228" sqref="J228"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,2681 +931,2681 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>13.6899991</v>
-      </c>
-      <c r="B2">
-        <v>100.7501124</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>15.0701787023</v>
+      </c>
+      <c r="B2" s="3">
+        <v>105.285179316</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>13.6899991</v>
-      </c>
-      <c r="B3">
-        <v>100.7451124</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>15.0695662584</v>
+      </c>
+      <c r="B3" s="3">
+        <v>105.293351458</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>13.8215908</v>
-      </c>
-      <c r="B4">
-        <v>100.0658874</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>15.0732018276</v>
+      </c>
+      <c r="B4" s="3">
+        <v>105.293319345</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>13.68799991</v>
-      </c>
-      <c r="B5">
-        <v>100.7451124</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>15.0717833923</v>
+      </c>
+      <c r="B5" s="3">
+        <v>105.30828386</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>13.765143</v>
-      </c>
-      <c r="B6">
-        <v>100.536202</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>15.0637884025</v>
+      </c>
+      <c r="B6" s="3">
+        <v>105.30013045299999</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>13.8537638</v>
-      </c>
-      <c r="B7">
-        <v>100.5227505</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>15.0614506374</v>
+      </c>
+      <c r="B7" s="3">
+        <v>105.311283003</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>13.8527638</v>
-      </c>
-      <c r="B8">
-        <v>100.5217505</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>15.0650163282</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105.318658857</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>12.5541754</v>
-      </c>
-      <c r="B9">
-        <v>99.9587111</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>15.0596814421</v>
+      </c>
+      <c r="B9" s="3">
+        <v>105.33544932</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>13.8527668</v>
-      </c>
-      <c r="B10">
-        <v>100.5227505</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>15.068950301599999</v>
+      </c>
+      <c r="B10" s="3">
+        <v>105.334806761</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>13.8527668</v>
-      </c>
-      <c r="B11">
-        <v>100.5219665</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>15.069271348099999</v>
+      </c>
+      <c r="B11" s="3">
+        <v>105.329924976</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>13.8530668</v>
-      </c>
-      <c r="B12">
-        <v>100.5219665</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>15.060857114899999</v>
+      </c>
+      <c r="B12" s="3">
+        <v>105.337885339</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>13.8530668</v>
-      </c>
-      <c r="B13">
-        <v>100.5229505</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>15.0718939755</v>
+      </c>
+      <c r="B13" s="3">
+        <v>105.335769528</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13.8531268</v>
-      </c>
-      <c r="B14">
-        <v>100.5219505</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>15.061468957900001</v>
+      </c>
+      <c r="B14" s="3">
+        <v>105.33679418</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13.8533238</v>
-      </c>
-      <c r="B15">
-        <v>100.5219505</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>15.0627562068</v>
+      </c>
+      <c r="B15" s="3">
+        <v>105.340189282</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>13.8531238</v>
-      </c>
-      <c r="B16">
-        <v>100.5219505</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15.058544145999999</v>
+      </c>
+      <c r="B16" s="3">
+        <v>105.34237503600001</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>13.8159861</v>
-      </c>
-      <c r="B17">
-        <v>100.6873403</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15.066076055</v>
+      </c>
+      <c r="B17" s="3">
+        <v>105.347391124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>18.7897682</v>
-      </c>
-      <c r="B18">
-        <v>98.9724276</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15.061414367199999</v>
+      </c>
+      <c r="B18" s="3">
+        <v>105.341308914</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>13.8618308</v>
-      </c>
-      <c r="B19">
-        <v>100.5195033</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>15.061512669400001</v>
+      </c>
+      <c r="B19" s="3">
+        <v>105.341180112</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>13.743426</v>
-      </c>
-      <c r="B20">
-        <v>100.538183</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>15.061603974500001</v>
+      </c>
+      <c r="B20" s="3">
+        <v>105.341081772</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>13.7645461</v>
-      </c>
-      <c r="B21">
-        <v>100.5361008</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>15.0616169329</v>
+      </c>
+      <c r="B21" s="3">
+        <v>105.341342004</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>13.8523238</v>
-      </c>
-      <c r="B22">
-        <v>100.5219505</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>15.0620360695</v>
+      </c>
+      <c r="B22" s="3">
+        <v>105.41791453</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>13.7599318</v>
-      </c>
-      <c r="B23">
-        <v>100.4835986</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>15.061411613700001</v>
+      </c>
+      <c r="B23" s="3">
+        <v>105.42313583400001</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>12.5673364</v>
-      </c>
-      <c r="B24">
-        <v>99.9032811</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>15.065762359700001</v>
+      </c>
+      <c r="B24" s="3">
+        <v>105.430400475</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>8.07845</v>
-      </c>
-      <c r="B25">
-        <v>98.906229</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>15.0555043145</v>
+      </c>
+      <c r="B25" s="3">
+        <v>105.461540779</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>13.8523238</v>
-      </c>
-      <c r="B26">
-        <v>100.5229505</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>15.060475324800001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>105.460810503</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>7.8968866</v>
-      </c>
-      <c r="B27">
-        <v>98.3816029</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>15.108907416599999</v>
+      </c>
+      <c r="B27" s="3">
+        <v>103.998592098</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>13.6538969</v>
-      </c>
-      <c r="B28">
-        <v>100.7822187</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>15.112921056299999</v>
+      </c>
+      <c r="B28" s="3">
+        <v>104.016182355</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>13.7657207</v>
-      </c>
-      <c r="B29">
-        <v>100.5312696</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>15.1068395671</v>
+      </c>
+      <c r="B29" s="3">
+        <v>104.005318198</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>13.8531238</v>
-      </c>
-      <c r="B30">
-        <v>100.5229505</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>15.1108340993</v>
+      </c>
+      <c r="B30" s="3">
+        <v>104.027610482</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>13.8618308</v>
-      </c>
-      <c r="B31">
-        <v>100.5185033</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>15.109533454899999</v>
+      </c>
+      <c r="B31" s="3">
+        <v>104.021358302</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>13.8531228</v>
-      </c>
-      <c r="B32">
-        <v>100.5219505</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>15.1066243817</v>
+      </c>
+      <c r="B32" s="3">
+        <v>104.03191443999999</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>12.6745261</v>
-      </c>
-      <c r="B33">
-        <v>100.9980048</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>15.109598437400001</v>
+      </c>
+      <c r="B33" s="3">
+        <v>104.02834121799999</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>13.8531028</v>
-      </c>
-      <c r="B34">
-        <v>100.5219305</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>15.1120340237</v>
+      </c>
+      <c r="B34" s="3">
+        <v>104.022304906</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>13.8531128</v>
-      </c>
-      <c r="B35">
-        <v>100.5229305</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>15.1115113003</v>
+      </c>
+      <c r="B35" s="3">
+        <v>104.034697244</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>13.8531148</v>
-      </c>
-      <c r="B36">
-        <v>100.5229205</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>15.104765738799999</v>
+      </c>
+      <c r="B36" s="3">
+        <v>104.044958263</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>13.7645431</v>
-      </c>
-      <c r="B37">
-        <v>100.5360908</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>15.1052797619</v>
+      </c>
+      <c r="B37" s="3">
+        <v>104.03445565</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>13.8522248</v>
-      </c>
-      <c r="B38">
-        <v>100.5217305</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>15.107534617400001</v>
+      </c>
+      <c r="B38" s="3">
+        <v>104.05490780300001</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>13.9436441</v>
-      </c>
-      <c r="B39">
-        <v>100.6245672</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>15.112012402</v>
+      </c>
+      <c r="B39" s="3">
+        <v>104.05631382599999</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>13.8525958</v>
-      </c>
-      <c r="B40">
-        <v>100.5227195</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>15.1109025439</v>
+      </c>
+      <c r="B40" s="3">
+        <v>104.05558528100001</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>13.8530158</v>
-      </c>
-      <c r="B41">
-        <v>100.5219995</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>15.1046494253</v>
+      </c>
+      <c r="B41" s="3">
+        <v>104.06260876899999</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>13.8529858</v>
-      </c>
-      <c r="B42">
-        <v>100.5218995</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>15.109355192500001</v>
+      </c>
+      <c r="B42" s="3">
+        <v>104.09181843499999</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>13.8168861</v>
-      </c>
-      <c r="B43">
-        <v>100.6874403</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>15.1133255245</v>
+      </c>
+      <c r="B43" s="3">
+        <v>104.103041092</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>13.8525858</v>
-      </c>
-      <c r="B44">
-        <v>100.5220995</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>15.1119586656</v>
+      </c>
+      <c r="B44" s="3">
+        <v>104.103353017</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>13.3515942</v>
-      </c>
-      <c r="B45">
-        <v>100.9812545</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>15.1067965482</v>
+      </c>
+      <c r="B45" s="3">
+        <v>104.113299459</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>13.3515942</v>
-      </c>
-      <c r="B46">
-        <v>100.9822545</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>15.1138466812</v>
+      </c>
+      <c r="B46" s="3">
+        <v>104.102883284</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>13.8525958</v>
-      </c>
-      <c r="B47">
-        <v>100.5219895</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>15.107671291100001</v>
+      </c>
+      <c r="B47" s="3">
+        <v>104.11121922300001</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>8.660777599999999</v>
-      </c>
-      <c r="B48">
-        <v>99.9207031</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>15.107177499300001</v>
+      </c>
+      <c r="B48" s="3">
+        <v>104.126238098</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>13.8620256</v>
-      </c>
-      <c r="B49">
-        <v>100.5220974</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>15.1153237486</v>
+      </c>
+      <c r="B49" s="3">
+        <v>104.11978460500001</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>15.185142</v>
-      </c>
-      <c r="B50">
-        <v>102.077357</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>15.104826668699999</v>
+      </c>
+      <c r="B50" s="3">
+        <v>104.127632436</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>13.7643031</v>
-      </c>
-      <c r="B51">
-        <v>100.5365908</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>15.1053647995</v>
+      </c>
+      <c r="B51" s="3">
+        <v>104.12765381</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>13.8167961</v>
-      </c>
-      <c r="B52">
-        <v>100.6872403</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>15.1048240167</v>
+      </c>
+      <c r="B52" s="3">
+        <v>104.130159358</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>13.661327</v>
-      </c>
-      <c r="B53">
-        <v>100.605967</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>15.104653815500001</v>
+      </c>
+      <c r="B53" s="3">
+        <v>104.12988068999999</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>13.661052</v>
-      </c>
-      <c r="B54">
-        <v>100.5918922</v>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>15.1051818591</v>
+      </c>
+      <c r="B54" s="3">
+        <v>104.12983324699999</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>13.7639031</v>
-      </c>
-      <c r="B55">
-        <v>100.5366008</v>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>15.1039844058</v>
+      </c>
+      <c r="B55" s="3">
+        <v>104.11856327300001</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>13.7851184</v>
-      </c>
-      <c r="B56">
-        <v>99.9701025</v>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>15.1151430896</v>
+      </c>
+      <c r="B56" s="3">
+        <v>104.120913191</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>13.7850184</v>
-      </c>
-      <c r="B57">
-        <v>99.96910250000001</v>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>15.110446530100001</v>
+      </c>
+      <c r="B57" s="3">
+        <v>104.134567303</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>14.4666439</v>
-      </c>
-      <c r="B58">
-        <v>100.1160247</v>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>15.112586652799999</v>
+      </c>
+      <c r="B58" s="3">
+        <v>104.135460143</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>13.7464973</v>
-      </c>
-      <c r="B59">
-        <v>100.5092326</v>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>15.1128678853</v>
+      </c>
+      <c r="B59" s="3">
+        <v>104.135695691</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>13.6998881</v>
-      </c>
-      <c r="B60">
-        <v>100.7501124</v>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>15.108890673299999</v>
+      </c>
+      <c r="B60" s="3">
+        <v>104.140637814</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>13.8522958</v>
-      </c>
-      <c r="B61">
-        <v>100.5222895</v>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>15.107022066800001</v>
+      </c>
+      <c r="B61" s="3">
+        <v>104.141159339</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>13.8168561</v>
-      </c>
-      <c r="B62">
-        <v>100.6877403</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>15.1086005635</v>
+      </c>
+      <c r="B62" s="3">
+        <v>104.13963137899999</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>13.8532558</v>
-      </c>
-      <c r="B63">
-        <v>100.5222895</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>15.1069096641</v>
+      </c>
+      <c r="B63" s="3">
+        <v>104.14005545000001</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>13.7281658</v>
-      </c>
-      <c r="B64">
-        <v>100.5310528</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>15.106701833800001</v>
+      </c>
+      <c r="B64" s="3">
+        <v>104.13771032699999</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>13.738209</v>
-      </c>
-      <c r="B65">
-        <v>100.516303</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>15.112262987499999</v>
+      </c>
+      <c r="B65" s="3">
+        <v>104.13852684</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>9.565692</v>
-      </c>
-      <c r="B66">
-        <v>99.165083</v>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>15.110697417600001</v>
+      </c>
+      <c r="B66" s="3">
+        <v>104.138961975</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>6.93672</v>
-      </c>
-      <c r="B67">
-        <v>100.392928</v>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>15.1095194683</v>
+      </c>
+      <c r="B67" s="3">
+        <v>104.143153736</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>13.7323667</v>
-      </c>
-      <c r="B68">
-        <v>100.5356087</v>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>15.109623038600001</v>
+      </c>
+      <c r="B68" s="3">
+        <v>104.14138279700001</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>16.208652</v>
-      </c>
-      <c r="B69">
-        <v>102.791977</v>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>15.110962345500001</v>
+      </c>
+      <c r="B69" s="3">
+        <v>104.14019583300001</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>13.767431</v>
-      </c>
-      <c r="B70">
-        <v>100.53489</v>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>15.110919403700001</v>
+      </c>
+      <c r="B70" s="3">
+        <v>104.140448234</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>13.795892</v>
-      </c>
-      <c r="B71">
-        <v>100.320675</v>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>15.1116289946</v>
+      </c>
+      <c r="B71" s="3">
+        <v>104.14397882900001</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>12.697731</v>
-      </c>
-      <c r="B72">
-        <v>100.97399</v>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>15.1122320189</v>
+      </c>
+      <c r="B72" s="3">
+        <v>104.13719297900001</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>12.726049</v>
-      </c>
-      <c r="B73">
-        <v>101.043339</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>15.113604882300001</v>
+      </c>
+      <c r="B73" s="3">
+        <v>104.138381471</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>12.730494</v>
-      </c>
-      <c r="B74">
-        <v>101.136369</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>15.1137430925</v>
+      </c>
+      <c r="B74" s="3">
+        <v>104.13851538599999</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>12.682116</v>
-      </c>
-      <c r="B75">
-        <v>101.276476</v>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>15.112157460400001</v>
+      </c>
+      <c r="B75" s="3">
+        <v>104.142819507</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>12.662795</v>
-      </c>
-      <c r="B76">
-        <v>100.909332</v>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>15.1059698787</v>
+      </c>
+      <c r="B76" s="3">
+        <v>104.143028672</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>13.735609</v>
-      </c>
-      <c r="B77">
-        <v>100.528497</v>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>15.1059581407</v>
+      </c>
+      <c r="B77" s="3">
+        <v>104.142666854</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>13.866526</v>
-      </c>
-      <c r="B78">
-        <v>100.60866</v>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>15.113549642100001</v>
+      </c>
+      <c r="B78" s="3">
+        <v>104.138056843</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>13.813326</v>
-      </c>
-      <c r="B79">
-        <v>100.548622</v>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>15.1093534862</v>
+      </c>
+      <c r="B79" s="3">
+        <v>104.13937759300001</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>14.453461</v>
-      </c>
-      <c r="B80">
-        <v>103.689843</v>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>15.103312129900001</v>
+      </c>
+      <c r="B80" s="3">
+        <v>104.131183838</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>13.610982</v>
-      </c>
-      <c r="B81">
-        <v>100.837457</v>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>15.1140768669</v>
+      </c>
+      <c r="B81" s="3">
+        <v>104.137029716</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>13.785962</v>
-      </c>
-      <c r="B82">
-        <v>100.556176</v>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>15.1092537879</v>
+      </c>
+      <c r="B82" s="3">
+        <v>104.13602407099999</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>16.427158</v>
-      </c>
-      <c r="B83">
-        <v>101.153523</v>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>15.1047760957</v>
+      </c>
+      <c r="B83" s="3">
+        <v>104.13850188000001</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>13.765684</v>
-      </c>
-      <c r="B84">
-        <v>100.533389</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>15.113938599600001</v>
+      </c>
+      <c r="B84" s="3">
+        <v>104.137945806</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>13.792305</v>
-      </c>
-      <c r="B85">
-        <v>100.549973</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>15.104025581</v>
+      </c>
+      <c r="B85" s="3">
+        <v>104.142192185</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>13.7567564</v>
-      </c>
-      <c r="B86">
-        <v>100.5714159</v>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>15.114544051299999</v>
+      </c>
+      <c r="B86" s="3">
+        <v>104.136083192</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>16.942695</v>
-      </c>
-      <c r="B87">
-        <v>104.723904</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>15.108873427600001</v>
+      </c>
+      <c r="B87" s="3">
+        <v>104.13338334700001</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>14.045304</v>
-      </c>
-      <c r="B88">
-        <v>100.433878</v>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>15.1118583258</v>
+      </c>
+      <c r="B88" s="3">
+        <v>104.137869294</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>14.054377</v>
-      </c>
-      <c r="B89">
-        <v>100.631022</v>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>15.1115411643</v>
+      </c>
+      <c r="B89" s="3">
+        <v>104.134933647</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>14.984929</v>
-      </c>
-      <c r="B90">
-        <v>102.103557</v>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>15.111483096800001</v>
+      </c>
+      <c r="B90" s="3">
+        <v>104.137770356</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>14.984919</v>
-      </c>
-      <c r="B91">
-        <v>102.103547</v>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>15.1116353413</v>
+      </c>
+      <c r="B91" s="3">
+        <v>104.13774538200001</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>13.758529</v>
-      </c>
-      <c r="B92">
-        <v>100.566238</v>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>15.1064474809</v>
+      </c>
+      <c r="B92" s="3">
+        <v>104.131965249</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>13.713369</v>
-      </c>
-      <c r="B93">
-        <v>100.479241</v>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>15.1038710478</v>
+      </c>
+      <c r="B93" s="3">
+        <v>104.13406486700001</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>9.124031</v>
-      </c>
-      <c r="B94">
-        <v>99.309859</v>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>15.112054366900001</v>
+      </c>
+      <c r="B94" s="3">
+        <v>104.140423793</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>13.68924</v>
-      </c>
-      <c r="B95">
-        <v>100.750014</v>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>15.1078177455</v>
+      </c>
+      <c r="B95" s="3">
+        <v>104.13081225099999</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>14.152245</v>
-      </c>
-      <c r="B96">
-        <v>100.617803</v>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>15.109473878399999</v>
+      </c>
+      <c r="B96" s="3">
+        <v>104.133824637</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>13.7486936</v>
-      </c>
-      <c r="B97">
-        <v>100.6064546</v>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>15.1103074822</v>
+      </c>
+      <c r="B97" s="3">
+        <v>104.13826505999999</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>13.777464</v>
-      </c>
-      <c r="B98">
-        <v>100.579256</v>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>15.108605448400001</v>
+      </c>
+      <c r="B98" s="3">
+        <v>104.138810065</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>13.612125</v>
-      </c>
-      <c r="B99">
-        <v>101.328831</v>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>15.112660291599999</v>
+      </c>
+      <c r="B99" s="3">
+        <v>104.140417527</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>13.752392</v>
-      </c>
-      <c r="B100">
-        <v>100.663796</v>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>15.1115138929</v>
+      </c>
+      <c r="B100" s="3">
+        <v>104.142626311</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>13.89878</v>
-      </c>
-      <c r="B101">
-        <v>100.545152</v>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>15.1125041787</v>
+      </c>
+      <c r="B101" s="3">
+        <v>104.147347552</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>13.73697</v>
-      </c>
-      <c r="B102">
-        <v>100.641787</v>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>15.1137266518</v>
+      </c>
+      <c r="B102" s="3">
+        <v>104.151076507</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>13.908185</v>
-      </c>
-      <c r="B103">
-        <v>99.767413</v>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>15.108986680399999</v>
+      </c>
+      <c r="B103" s="3">
+        <v>104.145899863</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>15.004437</v>
-      </c>
-      <c r="B104">
-        <v>103.112176</v>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>15.109095351300001</v>
+      </c>
+      <c r="B104" s="3">
+        <v>104.145432539</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>18.789733</v>
-      </c>
-      <c r="B105">
-        <v>98.974171</v>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>15.1130502802</v>
+      </c>
+      <c r="B105" s="3">
+        <v>104.147435438</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>9.124031</v>
-      </c>
-      <c r="B106">
-        <v>99.309859</v>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>15.109142289999999</v>
+      </c>
+      <c r="B106" s="3">
+        <v>104.146570297</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>13.730586</v>
-      </c>
-      <c r="B107">
-        <v>100.513634</v>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>15.1149387041</v>
+      </c>
+      <c r="B107" s="3">
+        <v>104.15502242300001</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>13.667345</v>
-      </c>
-      <c r="B108">
-        <v>100.650481</v>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>15.113129881100001</v>
+      </c>
+      <c r="B108" s="3">
+        <v>104.178912838</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>17.198818</v>
-      </c>
-      <c r="B109">
-        <v>102.457285</v>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>15.1110488978</v>
+      </c>
+      <c r="B109" s="3">
+        <v>104.19513619999999</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>15.449624</v>
-      </c>
-      <c r="B110">
-        <v>101.054976</v>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>15.108347397099999</v>
+      </c>
+      <c r="B110" s="3">
+        <v>104.194524261</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>18.789733</v>
-      </c>
-      <c r="B111">
-        <v>98.974171</v>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>15.109597326599999</v>
+      </c>
+      <c r="B111" s="3">
+        <v>104.196359266</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>13.783453</v>
-      </c>
-      <c r="B112">
-        <v>100.546504</v>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>15.110853651499999</v>
+      </c>
+      <c r="B112" s="3">
+        <v>104.206889434</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>13.3551085</v>
-      </c>
-      <c r="B113">
-        <v>100.9869833</v>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>15.1118619517</v>
+      </c>
+      <c r="B113" s="3">
+        <v>104.20184100900001</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
-        <v>13.8390891</v>
-      </c>
-      <c r="B114">
-        <v>100.5826952</v>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>15.1115533163</v>
+      </c>
+      <c r="B114" s="3">
+        <v>104.20503336100001</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
-        <v>13.547414</v>
-      </c>
-      <c r="B115">
-        <v>100.273464</v>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>15.103639063699999</v>
+      </c>
+      <c r="B115" s="3">
+        <v>104.201415309</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
-        <v>19.9007421</v>
-      </c>
-      <c r="B116">
-        <v>99.829194</v>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>15.1034154752</v>
+      </c>
+      <c r="B116" s="3">
+        <v>104.19993664499999</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>17.414934</v>
-      </c>
-      <c r="B117">
-        <v>102.780286</v>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>15.100717407599999</v>
+      </c>
+      <c r="B117" s="3">
+        <v>104.21688334</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
-        <v>12.6079491</v>
-      </c>
-      <c r="B118">
-        <v>99.94803760000001</v>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>15.1096232843</v>
+      </c>
+      <c r="B118" s="3">
+        <v>104.215027597</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
-        <v>13.710933</v>
-      </c>
-      <c r="B119">
-        <v>100.602373</v>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>15.1005830989</v>
+      </c>
+      <c r="B119" s="3">
+        <v>104.219971269</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
-        <v>17.48777</v>
-      </c>
-      <c r="B120">
-        <v>101.722455</v>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>15.112652825</v>
+      </c>
+      <c r="B120" s="3">
+        <v>104.221845988</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>13.781466</v>
-      </c>
-      <c r="B121">
-        <v>99.74632010000001</v>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>15.1131374094</v>
+      </c>
+      <c r="B121" s="3">
+        <v>104.238274369</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
-        <v>12.603813</v>
-      </c>
-      <c r="B122">
-        <v>102.1022441</v>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>15.1114359485</v>
+      </c>
+      <c r="B122" s="3">
+        <v>104.235742776</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
-        <v>15.4493884</v>
-      </c>
-      <c r="B123">
-        <v>101.0550581</v>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>15.112501766699999</v>
+      </c>
+      <c r="B123" s="3">
+        <v>104.246020731</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
-        <v>13.6875072</v>
-      </c>
-      <c r="B124">
-        <v>100.4909221</v>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>15.1065601551</v>
+      </c>
+      <c r="B124" s="3">
+        <v>104.245271551</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
-        <v>13.8367133</v>
-      </c>
-      <c r="B125">
-        <v>100.6622358</v>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>15.112061753900001</v>
+      </c>
+      <c r="B125" s="3">
+        <v>104.277164144</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
-        <v>13.7359364</v>
-      </c>
-      <c r="B126">
-        <v>100.5287473</v>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>15.1082202612</v>
+      </c>
+      <c r="B126" s="3">
+        <v>104.28299944600001</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
-        <v>13.6908986</v>
-      </c>
-      <c r="B127">
-        <v>102.5030711</v>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>15.106679527400001</v>
+      </c>
+      <c r="B127" s="3">
+        <v>104.283265102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>13.8577378</v>
-      </c>
-      <c r="B128">
-        <v>100.5360211</v>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>15.1119391798</v>
+      </c>
+      <c r="B128" s="3">
+        <v>104.27652129400001</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
-        <v>13.6783729</v>
-      </c>
-      <c r="B129">
-        <v>100.5136153</v>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>15.1115321216</v>
+      </c>
+      <c r="B129" s="3">
+        <v>104.284975129</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
-        <v>13.8458561</v>
-      </c>
-      <c r="B130">
-        <v>100.5425459</v>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>15.1055585347</v>
+      </c>
+      <c r="B130" s="3">
+        <v>104.28508410000001</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
-        <v>13.741954</v>
-      </c>
-      <c r="B131">
-        <v>100.558209</v>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>15.0994924977</v>
+      </c>
+      <c r="B131" s="3">
+        <v>104.292321743</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
-        <v>13.786968</v>
-      </c>
-      <c r="B132">
-        <v>100.578588</v>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>15.111247776500001</v>
+      </c>
+      <c r="B132" s="3">
+        <v>104.28512424100001</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
-        <v>19.9007705</v>
-      </c>
-      <c r="B133">
-        <v>99.8291772</v>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>15.1005511828</v>
+      </c>
+      <c r="B133" s="3">
+        <v>104.291511394</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
-        <v>13.0911754</v>
-      </c>
-      <c r="B134">
-        <v>100.9027354</v>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>15.111398120700001</v>
+      </c>
+      <c r="B134" s="3">
+        <v>104.28992259100001</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
-        <v>14.9583324</v>
-      </c>
-      <c r="B135">
-        <v>102.0480826</v>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>15.099601999600001</v>
+      </c>
+      <c r="B135" s="3">
+        <v>104.293731744</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>9.521960999999999</v>
-      </c>
-      <c r="B136">
-        <v>99.935481</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
-        <v>13.779791</v>
-      </c>
-      <c r="B137">
-        <v>100.560328</v>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>15.1115632544</v>
+      </c>
+      <c r="B136" s="3">
+        <v>104.285149967</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>15.1021078308</v>
+      </c>
+      <c r="B137" s="3">
+        <v>104.290217494</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
-        <v>13.809561</v>
-      </c>
-      <c r="B138">
-        <v>100.5911</v>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>15.107657354200001</v>
+      </c>
+      <c r="B138" s="3">
+        <v>104.307193424</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
-        <v>13.916628</v>
-      </c>
-      <c r="B139">
-        <v>100.556343</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
-        <v>13.756469</v>
-      </c>
-      <c r="B140">
-        <v>100.57128</v>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>15.1071025873</v>
+      </c>
+      <c r="B139" s="3">
+        <v>104.308278526</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>15.105552037600001</v>
+      </c>
+      <c r="B140" s="3">
+        <v>104.304384294</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
-        <v>13.7258067</v>
-      </c>
-      <c r="B141">
-        <v>100.6295269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
-        <v>13.726937</v>
-      </c>
-      <c r="B142">
-        <v>100.693263</v>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>15.1070091779</v>
+      </c>
+      <c r="B141" s="3">
+        <v>104.30964145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>15.1055505713</v>
+      </c>
+      <c r="B142" s="3">
+        <v>104.304179207</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
-        <v>16.795958</v>
-      </c>
-      <c r="B143">
-        <v>100.254651</v>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>15.1014788117</v>
+      </c>
+      <c r="B143" s="3">
+        <v>104.30856083099999</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
-        <v>13.742862</v>
-      </c>
-      <c r="B144">
-        <v>100.5479039</v>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>15.1028991578</v>
+      </c>
+      <c r="B144" s="3">
+        <v>104.306359138</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>13.756258</v>
-      </c>
-      <c r="B145">
-        <v>100.61898</v>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>15.110311949</v>
+      </c>
+      <c r="B145" s="3">
+        <v>104.304875591</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
-        <v>9.521841999999999</v>
-      </c>
-      <c r="B146">
-        <v>99.93557199999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
-        <v>13.650851</v>
-      </c>
-      <c r="B147">
-        <v>100.605806</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
-        <v>13.818245</v>
-      </c>
-      <c r="B148">
-        <v>100.591734</v>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>15.101976779399999</v>
+      </c>
+      <c r="B146" s="3">
+        <v>104.30858833400001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>15.1102102709</v>
+      </c>
+      <c r="B147" s="3">
+        <v>104.30873528799999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>15.105479774100001</v>
+      </c>
+      <c r="B148" s="3">
+        <v>104.323336618</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
-        <v>8.076304</v>
-      </c>
-      <c r="B149">
-        <v>98.915612</v>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>15.111574411399999</v>
+      </c>
+      <c r="B149" s="3">
+        <v>104.318160479</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>19.335154</v>
-      </c>
-      <c r="B150">
-        <v>97.965305</v>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>15.1110621442</v>
+      </c>
+      <c r="B150" s="3">
+        <v>104.318383776</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
-        <v>13.7329534</v>
-      </c>
-      <c r="B151">
-        <v>100.489459</v>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>15.1070919778</v>
+      </c>
+      <c r="B151" s="3">
+        <v>104.315632311</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
-        <v>13.8601105</v>
-      </c>
-      <c r="B152">
-        <v>100.5132971</v>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>15.1013966552</v>
+      </c>
+      <c r="B152" s="3">
+        <v>104.314555892</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
-        <v>13.730444</v>
-      </c>
-      <c r="B153">
-        <v>100.560294</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
-        <v>13.753179</v>
-      </c>
-      <c r="B154">
-        <v>100.576275</v>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>15.1004565161</v>
+      </c>
+      <c r="B153" s="3">
+        <v>104.314347302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>15.101034674899999</v>
+      </c>
+      <c r="B154" s="3">
+        <v>104.31614138800001</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
-        <v>13.710259</v>
-      </c>
-      <c r="B155">
-        <v>100.509508</v>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>15.1025603182</v>
+      </c>
+      <c r="B155" s="3">
+        <v>104.315846889</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
-        <v>13.711527</v>
-      </c>
-      <c r="B156">
-        <v>100.509895</v>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>15.102237052</v>
+      </c>
+      <c r="B156" s="3">
+        <v>104.31533948800001</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>18.0497848</v>
-      </c>
-      <c r="B157">
-        <v>103.0858829</v>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>15.098663027300001</v>
+      </c>
+      <c r="B157" s="3">
+        <v>104.31381852</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>13.806049</v>
-      </c>
-      <c r="B158">
-        <v>100.57273</v>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>15.098541944200001</v>
+      </c>
+      <c r="B158" s="3">
+        <v>104.320018709</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>13.5309117</v>
-      </c>
-      <c r="B159">
-        <v>99.8155352</v>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>15.104332511200001</v>
+      </c>
+      <c r="B159" s="3">
+        <v>104.324244659</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>13.869208</v>
-      </c>
-      <c r="B160">
-        <v>100.517867</v>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>15.104749358299999</v>
+      </c>
+      <c r="B160" s="3">
+        <v>104.323069788</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>13.685114</v>
-      </c>
-      <c r="B161">
-        <v>100.611013</v>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>15.1047638732</v>
+      </c>
+      <c r="B161" s="3">
+        <v>104.3155661</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>13.706167</v>
-      </c>
-      <c r="B162">
-        <v>100.536481</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>13.830086</v>
-      </c>
-      <c r="B163">
-        <v>100.571177</v>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>15.098896461200001</v>
+      </c>
+      <c r="B162" s="3">
+        <v>104.323054754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>15.0996680317</v>
+      </c>
+      <c r="B163" s="3">
+        <v>104.31370716799999</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>13.743326</v>
-      </c>
-      <c r="B164">
-        <v>100.545814</v>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>15.107950671499999</v>
+      </c>
+      <c r="B164" s="3">
+        <v>104.323775306</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>13.766207</v>
-      </c>
-      <c r="B165">
-        <v>100.603696</v>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>15.107947066099999</v>
+      </c>
+      <c r="B165" s="3">
+        <v>104.32436131</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>13.663502</v>
-      </c>
-      <c r="B166">
-        <v>100.651232</v>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>15.1102632362</v>
+      </c>
+      <c r="B166" s="3">
+        <v>104.324217035</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>13.776689</v>
-      </c>
-      <c r="B167">
-        <v>100.583181</v>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>15.1108684884</v>
+      </c>
+      <c r="B167" s="3">
+        <v>104.324237892</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>13.665924</v>
-      </c>
-      <c r="B168">
-        <v>100.604156</v>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>15.1102303273</v>
+      </c>
+      <c r="B168" s="3">
+        <v>104.319599051</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>13.808032</v>
-      </c>
-      <c r="B169">
-        <v>100.559283</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>13.707018</v>
-      </c>
-      <c r="B170">
-        <v>100.634399</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>13.659585</v>
-      </c>
-      <c r="B171">
-        <v>100.631069</v>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>15.109455902000001</v>
+      </c>
+      <c r="B169" s="3">
+        <v>104.317972983</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>15.1087901198</v>
+      </c>
+      <c r="B170" s="3">
+        <v>104.31792631499999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>15.111297121</v>
+      </c>
+      <c r="B171" s="3">
+        <v>104.31969649600001</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>17.452509</v>
-      </c>
-      <c r="B172">
-        <v>101.729418</v>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>15.1071042158</v>
+      </c>
+      <c r="B172" s="3">
+        <v>104.318527754</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>19.335153</v>
-      </c>
-      <c r="B173">
-        <v>97.965304</v>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>15.106873333399999</v>
+      </c>
+      <c r="B173" s="3">
+        <v>104.317720589</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>17.308381</v>
-      </c>
-      <c r="B174">
-        <v>100.073875</v>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>15.102496152800001</v>
+      </c>
+      <c r="B174" s="3">
+        <v>104.311570003</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>13.779881</v>
-      </c>
-      <c r="B175">
-        <v>100.560354</v>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>15.1043276091</v>
+      </c>
+      <c r="B175" s="3">
+        <v>104.322792327</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>13.7487544</v>
-      </c>
-      <c r="B176">
-        <v>100.5614066</v>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>15.108641431200001</v>
+      </c>
+      <c r="B176" s="3">
+        <v>104.319816555</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>12.917191</v>
-      </c>
-      <c r="B177">
-        <v>100.86654</v>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>15.10013908</v>
+      </c>
+      <c r="B177" s="3">
+        <v>104.314602826</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>13.771324</v>
-      </c>
-      <c r="B178">
-        <v>100.629439</v>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>15.0988008743</v>
+      </c>
+      <c r="B178" s="3">
+        <v>104.312654438</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>13.707391</v>
-      </c>
-      <c r="B179">
-        <v>100.600336</v>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>15.1049270386</v>
+      </c>
+      <c r="B179" s="3">
+        <v>104.32085682100001</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>13.662588</v>
-      </c>
-      <c r="B180">
-        <v>100.528441</v>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>15.111230369199999</v>
+      </c>
+      <c r="B180" s="3">
+        <v>104.32320106</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>13.737177</v>
-      </c>
-      <c r="B181">
-        <v>100.643535</v>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>15.0983638871</v>
+      </c>
+      <c r="B181" s="3">
+        <v>104.316682954</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
-        <v>13.711474</v>
-      </c>
-      <c r="B182">
-        <v>100.60422</v>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>15.109119761600001</v>
+      </c>
+      <c r="B182" s="3">
+        <v>104.32170626200001</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>13.754318</v>
-      </c>
-      <c r="B183">
-        <v>100.532673</v>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>15.108039439300001</v>
+      </c>
+      <c r="B183" s="3">
+        <v>104.31829711</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
-        <v>13.780539</v>
-      </c>
-      <c r="B184">
-        <v>100.446155</v>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>15.105405984400001</v>
+      </c>
+      <c r="B184" s="3">
+        <v>104.324028891</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>13.694495</v>
-      </c>
-      <c r="B185">
-        <v>100.536013</v>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>15.1099196322</v>
+      </c>
+      <c r="B185" s="3">
+        <v>104.319545496</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
-        <v>13.8628575</v>
-      </c>
-      <c r="B186">
-        <v>100.6129074</v>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>15.0992312857</v>
+      </c>
+      <c r="B186" s="3">
+        <v>104.312207255</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
-        <v>13.748652</v>
-      </c>
-      <c r="B187">
-        <v>100.606465</v>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>15.104793284599999</v>
+      </c>
+      <c r="B187" s="3">
+        <v>104.322218304</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
-        <v>13.742906</v>
-      </c>
-      <c r="B188">
-        <v>100.588968</v>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>15.100378281899999</v>
+      </c>
+      <c r="B188" s="3">
+        <v>104.314190289</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
-        <v>13.354997</v>
-      </c>
-      <c r="B189">
-        <v>100.987001</v>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>15.1115337593</v>
+      </c>
+      <c r="B189" s="3">
+        <v>104.314910316</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
-        <v>13.836732</v>
-      </c>
-      <c r="B190">
-        <v>100.663592</v>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>15.1073964767</v>
+      </c>
+      <c r="B190" s="3">
+        <v>104.313224034</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
-        <v>13.774038</v>
-      </c>
-      <c r="B191">
-        <v>100.584031</v>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>15.1115330701</v>
+      </c>
+      <c r="B191" s="3">
+        <v>104.311467365</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
-        <v>13.752833</v>
-      </c>
-      <c r="B192">
-        <v>100.631091</v>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>15.109972495399999</v>
+      </c>
+      <c r="B192" s="3">
+        <v>104.314542316</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
-        <v>13.711148</v>
-      </c>
-      <c r="B193">
-        <v>100.603748</v>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>15.100405588599999</v>
+      </c>
+      <c r="B193" s="3">
+        <v>104.320475214</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
-        <v>13.836528</v>
-      </c>
-      <c r="B194">
-        <v>100.505046</v>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>15.100760124900001</v>
+      </c>
+      <c r="B194" s="3">
+        <v>104.31488714699999</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
-        <v>13.732071</v>
-      </c>
-      <c r="B195">
-        <v>100.514199</v>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>15.110471990600001</v>
+      </c>
+      <c r="B195" s="3">
+        <v>104.311283403</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
-        <v>13.753198</v>
-      </c>
-      <c r="B196">
-        <v>100.576291</v>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>15.105561955500001</v>
+      </c>
+      <c r="B196" s="3">
+        <v>104.317600786</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
-        <v>13.756413</v>
-      </c>
-      <c r="B197">
-        <v>100.571347</v>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>15.107550425099999</v>
+      </c>
+      <c r="B197" s="3">
+        <v>104.32538904</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
-        <v>13.830086</v>
-      </c>
-      <c r="B198">
-        <v>100.571177</v>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>15.1099030042</v>
+      </c>
+      <c r="B198" s="3">
+        <v>104.326579106</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
-        <v>13.760195</v>
-      </c>
-      <c r="B199">
-        <v>100.567907</v>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>15.108169684</v>
+      </c>
+      <c r="B199" s="3">
+        <v>104.325704792</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
-        <v>17.62489</v>
-      </c>
-      <c r="B200">
-        <v>104.510699</v>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>15.1079985963</v>
+      </c>
+      <c r="B200" s="3">
+        <v>104.32744658999999</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
-        <v>13.697868</v>
-      </c>
-      <c r="B201">
-        <v>100.614662</v>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>15.1111246436</v>
+      </c>
+      <c r="B201" s="3">
+        <v>104.330373271</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
-        <v>13.708202</v>
-      </c>
-      <c r="B202">
-        <v>100.625772</v>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>15.110580177499999</v>
+      </c>
+      <c r="B202" s="3">
+        <v>104.33155298</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203">
-        <v>14.073427</v>
-      </c>
-      <c r="B203">
-        <v>100.61522</v>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>15.1014899779</v>
+      </c>
+      <c r="B203" s="3">
+        <v>104.338252756</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204">
-        <v>14.011889</v>
-      </c>
-      <c r="B204">
-        <v>100.174125</v>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>15.1077612532</v>
+      </c>
+      <c r="B204" s="3">
+        <v>104.328405256</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205">
-        <v>13.6985</v>
-      </c>
-      <c r="B205">
-        <v>100.541389</v>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>15.110071199</v>
+      </c>
+      <c r="B205" s="3">
+        <v>104.32857018599999</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
-        <v>13.792567</v>
-      </c>
-      <c r="B206">
-        <v>100.523672</v>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>15.1063623075</v>
+      </c>
+      <c r="B206" s="3">
+        <v>104.329418105</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207">
-        <v>7.896708</v>
-      </c>
-      <c r="B207">
-        <v>98.383831</v>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>15.107833557899999</v>
+      </c>
+      <c r="B207" s="3">
+        <v>104.32960285999999</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208">
-        <v>13.8838669</v>
-      </c>
-      <c r="B208">
-        <v>100.5657718</v>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>15.108164309599999</v>
+      </c>
+      <c r="B208" s="3">
+        <v>104.329584168</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209">
-        <v>13.757598</v>
-      </c>
-      <c r="B209">
-        <v>100.564752</v>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>15.1089372045</v>
+      </c>
+      <c r="B209" s="3">
+        <v>104.329753432</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210">
-        <v>13.763554</v>
-      </c>
-      <c r="B210">
-        <v>100.511461</v>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>15.107133531200001</v>
+      </c>
+      <c r="B210" s="3">
+        <v>104.327432763</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211">
-        <v>13.780679</v>
-      </c>
-      <c r="B211">
-        <v>100.475413</v>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>15.106344805299999</v>
+      </c>
+      <c r="B211" s="3">
+        <v>104.328295755</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
-        <v>13.743144</v>
-      </c>
-      <c r="B212">
-        <v>100.534478</v>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>15.104580353199999</v>
+      </c>
+      <c r="B212" s="3">
+        <v>104.326304999</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213">
-        <v>13.874158</v>
-      </c>
-      <c r="B213">
-        <v>100.478607</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214">
-        <v>13.849981</v>
-      </c>
-      <c r="B214">
-        <v>100.527329</v>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>15.1054766232</v>
+      </c>
+      <c r="B213" s="3">
+        <v>104.326064581</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>15.104902576800001</v>
+      </c>
+      <c r="B214" s="3">
+        <v>104.325513492</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215">
-        <v>13.890155</v>
-      </c>
-      <c r="B215">
-        <v>100.570614</v>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>15.105291643499999</v>
+      </c>
+      <c r="B215" s="3">
+        <v>104.325497437</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216">
-        <v>13.875798</v>
-      </c>
-      <c r="B216">
-        <v>100.41361</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217">
-        <v>13.570877</v>
-      </c>
-      <c r="B217">
-        <v>100.720617</v>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>15.1067133545</v>
+      </c>
+      <c r="B216" s="3">
+        <v>104.325660165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>15.102933841700001</v>
+      </c>
+      <c r="B217" s="3">
+        <v>104.331219292</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
-        <v>13.78337</v>
-      </c>
-      <c r="B218">
-        <v>100.585393</v>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>15.1031021054</v>
+      </c>
+      <c r="B218" s="3">
+        <v>104.331371359</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219">
-        <v>13.776626</v>
-      </c>
-      <c r="B219">
-        <v>100.579343</v>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>15.108588322799999</v>
+      </c>
+      <c r="B219" s="3">
+        <v>104.331771035</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220">
-        <v>13.753178</v>
-      </c>
-      <c r="B220">
-        <v>100.576274</v>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>15.1080335517</v>
+      </c>
+      <c r="B220" s="3">
+        <v>104.33015573900001</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221">
-        <v>13.756468</v>
-      </c>
-      <c r="B221">
-        <v>100.57127</v>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>15.105063717</v>
+      </c>
+      <c r="B221" s="3">
+        <v>104.329995184</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222">
-        <v>13.830085</v>
-      </c>
-      <c r="B222">
-        <v>100.571176</v>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>15.111418086</v>
+      </c>
+      <c r="B222" s="3">
+        <v>104.33006267099999</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223">
-        <v>13.836732</v>
-      </c>
-      <c r="B223">
-        <v>100.663592</v>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>15.1105548521</v>
+      </c>
+      <c r="B223" s="3">
+        <v>104.32998216599999</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224">
-        <v>13.873927</v>
-      </c>
-      <c r="B224">
-        <v>100.478569</v>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>15.110411743</v>
+      </c>
+      <c r="B224" s="3">
+        <v>104.329944575</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225">
-        <v>13.753177</v>
-      </c>
-      <c r="B225">
-        <v>100.576274</v>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>15.1101681721</v>
+      </c>
+      <c r="B225" s="3">
+        <v>104.32992664699999</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226">
-        <v>13.71176</v>
-      </c>
-      <c r="B226">
-        <v>100.584444</v>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>15.1097625173</v>
+      </c>
+      <c r="B226" s="3">
+        <v>104.329877848</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227">
-        <v>13.7120714</v>
-      </c>
-      <c r="B227">
-        <v>100.5847572</v>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>15.110963097699999</v>
+      </c>
+      <c r="B227" s="3">
+        <v>104.328777207</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228">
-        <v>13.743308</v>
-      </c>
-      <c r="B228">
-        <v>100.507557</v>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>15.104346225800001</v>
+      </c>
+      <c r="B228" s="3">
+        <v>104.326669958</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229">
-        <v>13.754683</v>
-      </c>
-      <c r="B229">
-        <v>100.566984</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230">
-        <v>13.713119</v>
-      </c>
-      <c r="B230">
-        <v>100.550961</v>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>15.1051129411</v>
+      </c>
+      <c r="B229" s="3">
+        <v>104.336047935</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>15.108919181499999</v>
+      </c>
+      <c r="B230" s="3">
+        <v>104.337015558</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231">
-        <v>13.772211</v>
-      </c>
-      <c r="B231">
-        <v>100.57987</v>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <v>15.1018679431</v>
+      </c>
+      <c r="B231" s="3">
+        <v>104.33291907500001</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232">
-        <v>14.04612</v>
-      </c>
-      <c r="B232">
-        <v>100.664404</v>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>15.1012873354</v>
+      </c>
+      <c r="B232" s="3">
+        <v>104.33351183000001</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233">
-        <v>13.674537</v>
-      </c>
-      <c r="B233">
-        <v>100.532169</v>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>15.099439115499999</v>
+      </c>
+      <c r="B233" s="3">
+        <v>104.334874021</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234">
-        <v>9.521753</v>
-      </c>
-      <c r="B234">
-        <v>99.93566300000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235">
-        <v>13.73489</v>
-      </c>
-      <c r="B235">
-        <v>100.58427</v>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>15.1086555458</v>
+      </c>
+      <c r="B234" s="3">
+        <v>104.33231893200001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>15.109105981800001</v>
+      </c>
+      <c r="B235" s="3">
+        <v>104.332985792</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236">
-        <v>13.732774</v>
-      </c>
-      <c r="B236">
-        <v>100.530554</v>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>15.1110422032</v>
+      </c>
+      <c r="B236" s="3">
+        <v>104.33437845900001</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237">
-        <v>13.709097</v>
-      </c>
-      <c r="B237">
-        <v>100.382923</v>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <v>15.106552043700001</v>
+      </c>
+      <c r="B237" s="3">
+        <v>104.33427863199999</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238">
-        <v>14.343491</v>
-      </c>
-      <c r="B238">
-        <v>100.560158</v>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>15.105395765300001</v>
+      </c>
+      <c r="B238" s="3">
+        <v>104.333480067</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239">
-        <v>13.853877</v>
-      </c>
-      <c r="B239">
-        <v>100.859128</v>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>15.101491446300001</v>
+      </c>
+      <c r="B239" s="3">
+        <v>104.32620989599999</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240">
-        <v>9.521534000000001</v>
-      </c>
-      <c r="B240">
-        <v>99.93585400000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241">
-        <v>13.721846</v>
-      </c>
-      <c r="B241">
-        <v>100.727942</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242">
-        <v>9.735879000000001</v>
-      </c>
-      <c r="B242">
-        <v>99.99124999999999</v>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>15.1038674636</v>
+      </c>
+      <c r="B240" s="3">
+        <v>104.329912662</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <v>15.101585494</v>
+      </c>
+      <c r="B241" s="3">
+        <v>104.33159976899999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>15.1008906537</v>
+      </c>
+      <c r="B242" s="3">
+        <v>104.33212266699999</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243">
-        <v>13.6733091</v>
-      </c>
-      <c r="B243">
-        <v>100.6041831</v>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <v>15.1003102768</v>
+      </c>
+      <c r="B243" s="3">
+        <v>104.33244383500001</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244">
-        <v>13.736133</v>
-      </c>
-      <c r="B244">
-        <v>100.616948</v>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <v>15.111066858299999</v>
+      </c>
+      <c r="B244" s="3">
+        <v>104.33263479999999</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245">
-        <v>13.742344</v>
-      </c>
-      <c r="B245">
-        <v>100.534845</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246">
-        <v>13.767571</v>
-      </c>
-      <c r="B246">
-        <v>100.484541</v>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <v>15.099311741199999</v>
+      </c>
+      <c r="B245" s="3">
+        <v>104.33863288800001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>15.0982778834</v>
+      </c>
+      <c r="B246" s="3">
+        <v>104.337889922</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247">
-        <v>13.736396</v>
-      </c>
-      <c r="B247">
-        <v>100.62234</v>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
+        <v>15.1111836354</v>
+      </c>
+      <c r="B247" s="3">
+        <v>104.328585151</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248">
-        <v>13.648285</v>
-      </c>
-      <c r="B248">
-        <v>100.601114</v>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <v>15.1112901873</v>
+      </c>
+      <c r="B248" s="3">
+        <v>104.328590228</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249">
-        <v>13.893851</v>
-      </c>
-      <c r="B249">
-        <v>100.561708</v>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <v>15.110742265400001</v>
+      </c>
+      <c r="B249" s="3">
+        <v>104.32669741700001</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>157</v>
@@ -3553,238 +3613,238 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
-    <hyperlink ref="C102" r:id="rId101"/>
-    <hyperlink ref="C103" r:id="rId102"/>
-    <hyperlink ref="C104" r:id="rId103"/>
-    <hyperlink ref="C105" r:id="rId104"/>
-    <hyperlink ref="C106" r:id="rId105"/>
-    <hyperlink ref="C107" r:id="rId106"/>
-    <hyperlink ref="C108" r:id="rId107"/>
-    <hyperlink ref="C109" r:id="rId108"/>
-    <hyperlink ref="C110" r:id="rId109"/>
-    <hyperlink ref="C111" r:id="rId110"/>
-    <hyperlink ref="C112" r:id="rId111"/>
-    <hyperlink ref="C113" r:id="rId112"/>
-    <hyperlink ref="C114" r:id="rId113"/>
-    <hyperlink ref="C115" r:id="rId114"/>
-    <hyperlink ref="C116" r:id="rId115"/>
-    <hyperlink ref="C117" r:id="rId116"/>
-    <hyperlink ref="C118" r:id="rId117"/>
-    <hyperlink ref="C119" r:id="rId118"/>
-    <hyperlink ref="C120" r:id="rId119"/>
-    <hyperlink ref="C121" r:id="rId120"/>
-    <hyperlink ref="C122" r:id="rId121"/>
-    <hyperlink ref="C123" r:id="rId122"/>
-    <hyperlink ref="C124" r:id="rId123"/>
-    <hyperlink ref="C125" r:id="rId124"/>
-    <hyperlink ref="C126" r:id="rId125"/>
-    <hyperlink ref="C127" r:id="rId126"/>
-    <hyperlink ref="C128" r:id="rId127"/>
-    <hyperlink ref="C129" r:id="rId128"/>
-    <hyperlink ref="C130" r:id="rId129"/>
-    <hyperlink ref="C131" r:id="rId130"/>
-    <hyperlink ref="C132" r:id="rId131"/>
-    <hyperlink ref="C133" r:id="rId132"/>
-    <hyperlink ref="C134" r:id="rId133"/>
-    <hyperlink ref="C135" r:id="rId134"/>
-    <hyperlink ref="C137" r:id="rId135"/>
-    <hyperlink ref="C138" r:id="rId136"/>
-    <hyperlink ref="C140" r:id="rId137"/>
-    <hyperlink ref="C142" r:id="rId138"/>
-    <hyperlink ref="C143" r:id="rId139"/>
-    <hyperlink ref="C144" r:id="rId140"/>
-    <hyperlink ref="C145" r:id="rId141"/>
-    <hyperlink ref="C148" r:id="rId142"/>
-    <hyperlink ref="C149" r:id="rId143"/>
-    <hyperlink ref="C150" r:id="rId144"/>
-    <hyperlink ref="C151" r:id="rId145"/>
-    <hyperlink ref="C152" r:id="rId146" location=".XnwaNUOffes.facebook"/>
-    <hyperlink ref="C154" r:id="rId147"/>
-    <hyperlink ref="C155" r:id="rId148"/>
-    <hyperlink ref="C156" r:id="rId149"/>
-    <hyperlink ref="C157" r:id="rId150"/>
-    <hyperlink ref="C158" r:id="rId151"/>
-    <hyperlink ref="C159" r:id="rId152"/>
-    <hyperlink ref="C160" r:id="rId153"/>
-    <hyperlink ref="C161" r:id="rId154"/>
-    <hyperlink ref="C163" r:id="rId155"/>
-    <hyperlink ref="C164" r:id="rId156"/>
-    <hyperlink ref="C165" r:id="rId157"/>
-    <hyperlink ref="C166" r:id="rId158"/>
-    <hyperlink ref="C167" r:id="rId159"/>
-    <hyperlink ref="C168" r:id="rId160"/>
-    <hyperlink ref="C171" r:id="rId161"/>
-    <hyperlink ref="C172" r:id="rId162"/>
-    <hyperlink ref="C173" r:id="rId163"/>
-    <hyperlink ref="C174" r:id="rId164"/>
-    <hyperlink ref="C175" r:id="rId165"/>
-    <hyperlink ref="C176" r:id="rId166"/>
-    <hyperlink ref="C177" r:id="rId167"/>
-    <hyperlink ref="C178" r:id="rId168"/>
-    <hyperlink ref="C179" r:id="rId169"/>
-    <hyperlink ref="C180" r:id="rId170"/>
-    <hyperlink ref="C181" r:id="rId171"/>
-    <hyperlink ref="C182" r:id="rId172"/>
-    <hyperlink ref="C183" r:id="rId173"/>
-    <hyperlink ref="C184" r:id="rId174"/>
-    <hyperlink ref="C185" r:id="rId175"/>
-    <hyperlink ref="C186" r:id="rId176"/>
-    <hyperlink ref="C187" r:id="rId177"/>
-    <hyperlink ref="C188" r:id="rId178"/>
-    <hyperlink ref="C189" r:id="rId179"/>
-    <hyperlink ref="C190" r:id="rId180"/>
-    <hyperlink ref="C191" r:id="rId181"/>
-    <hyperlink ref="C192" r:id="rId182"/>
-    <hyperlink ref="C193" r:id="rId183"/>
-    <hyperlink ref="C194" r:id="rId184"/>
-    <hyperlink ref="C195" r:id="rId185"/>
-    <hyperlink ref="C196" r:id="rId186"/>
-    <hyperlink ref="C197" r:id="rId187"/>
-    <hyperlink ref="C198" r:id="rId188"/>
-    <hyperlink ref="C199" r:id="rId189"/>
-    <hyperlink ref="C200" r:id="rId190"/>
-    <hyperlink ref="C201" r:id="rId191"/>
-    <hyperlink ref="C202" r:id="rId192"/>
-    <hyperlink ref="C203" r:id="rId193"/>
-    <hyperlink ref="C204" r:id="rId194"/>
-    <hyperlink ref="C205" r:id="rId195"/>
-    <hyperlink ref="C206" r:id="rId196"/>
-    <hyperlink ref="C207" r:id="rId197"/>
-    <hyperlink ref="C208" r:id="rId198"/>
-    <hyperlink ref="C209" r:id="rId199"/>
-    <hyperlink ref="C210" r:id="rId200"/>
-    <hyperlink ref="C211" r:id="rId201"/>
-    <hyperlink ref="C212" r:id="rId202"/>
-    <hyperlink ref="C214" r:id="rId203"/>
-    <hyperlink ref="C215" r:id="rId204"/>
-    <hyperlink ref="C217" r:id="rId205"/>
-    <hyperlink ref="C218" r:id="rId206"/>
-    <hyperlink ref="C219" r:id="rId207"/>
-    <hyperlink ref="C220" r:id="rId208"/>
-    <hyperlink ref="C221" r:id="rId209"/>
-    <hyperlink ref="C222" r:id="rId210"/>
-    <hyperlink ref="C223" r:id="rId211"/>
-    <hyperlink ref="C224" r:id="rId212"/>
-    <hyperlink ref="C225" r:id="rId213"/>
-    <hyperlink ref="C226" r:id="rId214"/>
-    <hyperlink ref="C227" r:id="rId215"/>
-    <hyperlink ref="C228" r:id="rId216"/>
-    <hyperlink ref="C230" r:id="rId217"/>
-    <hyperlink ref="C231" r:id="rId218"/>
-    <hyperlink ref="C232" r:id="rId219"/>
-    <hyperlink ref="C233" r:id="rId220"/>
-    <hyperlink ref="C235" r:id="rId221"/>
-    <hyperlink ref="C236" r:id="rId222"/>
-    <hyperlink ref="C237" r:id="rId223"/>
-    <hyperlink ref="C238" r:id="rId224"/>
-    <hyperlink ref="C239" r:id="rId225"/>
-    <hyperlink ref="C242" r:id="rId226"/>
-    <hyperlink ref="C243" r:id="rId227"/>
-    <hyperlink ref="C244" r:id="rId228"/>
-    <hyperlink ref="C246" r:id="rId229"/>
-    <hyperlink ref="C247" r:id="rId230"/>
-    <hyperlink ref="C248" r:id="rId231"/>
-    <hyperlink ref="C249" r:id="rId232"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C140" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C142" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C143" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C144" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C145" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C148" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C149" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C150" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C151" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C152" r:id="rId146" location=".XnwaNUOffes.facebook" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C155" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C156" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C163" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C164" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C165" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C171" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C172" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C173" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C174" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C175" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C176" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C177" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C178" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C179" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C180" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C181" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C182" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C183" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C184" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C185" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C186" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C187" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C188" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C189" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C190" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C191" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C192" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C193" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C194" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C195" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C196" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C197" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C198" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C199" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C200" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C201" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C202" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C203" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C204" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C205" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C206" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C207" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C208" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C209" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C210" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C211" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C212" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C214" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C215" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C217" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C218" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C219" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C220" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C221" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C222" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C223" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C224" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C225" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C226" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C227" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C228" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C230" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C231" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C232" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C233" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C235" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C236" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C237" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C238" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C239" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C242" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C243" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C244" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C246" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C247" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C248" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C249" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
